--- a/Scripts_R210_FuerzaVenta/LIQ19_R110_10.b_CI_Ficha_Autotanque_20190131_JAR.XLSX
+++ b/Scripts_R210_FuerzaVenta/LIQ19_R110_10.b_CI_Ficha_Autotanque_20190131_JAR.XLSX
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="231">
   <si>
     <t>K_PUNTO_VENTA</t>
   </si>
@@ -384,12 +384,6 @@
     <t>MAT123</t>
   </si>
   <si>
-    <t>MARCA</t>
-  </si>
-  <si>
-    <t>CHEVROLET</t>
-  </si>
-  <si>
     <t>MODELO</t>
   </si>
   <si>
@@ -444,12 +438,6 @@
     <t>DV10359</t>
   </si>
   <si>
-    <t>GMC</t>
-  </si>
-  <si>
-    <t>GENERAL MOTORSS</t>
-  </si>
-  <si>
     <t>2006</t>
   </si>
   <si>
@@ -480,9 +468,6 @@
     <t>170980</t>
   </si>
   <si>
-    <t>G.M.KODIAK</t>
-  </si>
-  <si>
     <t>2005</t>
   </si>
   <si>
@@ -513,18 +498,12 @@
     <t>1276028</t>
   </si>
   <si>
-    <t>GMC C7500</t>
-  </si>
-  <si>
     <t>2001</t>
   </si>
   <si>
     <t>1733700</t>
   </si>
   <si>
-    <t>NISSAN</t>
-  </si>
-  <si>
     <t>2010</t>
   </si>
   <si>
@@ -534,9 +513,6 @@
     <t>17711</t>
   </si>
   <si>
-    <t>CHEVROLET HEAVY DUTY</t>
-  </si>
-  <si>
     <t>2007</t>
   </si>
   <si>
@@ -558,9 +534,6 @@
     <t>8911979</t>
   </si>
   <si>
-    <t>NISSAN VPM</t>
-  </si>
-  <si>
     <t>2008</t>
   </si>
   <si>
@@ -745,6 +718,9 @@
   </si>
   <si>
     <t>tipo</t>
+  </si>
+  <si>
+    <t>K_MARCA</t>
   </si>
 </sst>
 </file>
@@ -811,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -824,9 +800,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1124,73 +1097,74 @@
   <dimension ref="B2:U53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="M3" sqref="M3:M53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="122.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1328125" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="122.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.59765625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.85546875" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.86328125" customWidth="1"/>
+    <col min="19" max="19" width="13.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="K2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="P2" s="4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -1198,35 +1172,35 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>914890</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" s="12">
+      <c r="H3" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="11">
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="K3" s="14">
-        <v>0</v>
-      </c>
-      <c r="L3" s="14">
+        <v>123</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13">
         <v>0</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_AUTOTANQUE] 0,0, ",B3,", ",C3,", ",D3,",",E3,",'",F3,"','",G3,"','",H3,"',",I3,",'",J3,"',",K3,",'",L3,"'; ")</f>
-        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_DETALLE_AUTOTANQUE] 0,0, 1, 1, 0,914890,'ABC123','N/D','N/D',0,'N/D',0,'0'; </v>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, ",B3,", ",C3,",",D3,", ",E3,",",F3,",'",G3,"','",H3,"',",I3,",'",J3,"',",K3,",'",L3,"'; ")</f>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 1, 1,1, 0,914890,'ABC123','N/D',0,'N/D',0,'0'; </v>
       </c>
       <c r="P3" s="8">
         <v>1</v>
@@ -1234,42 +1208,39 @@
       <c r="Q3" s="1"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1363545</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>2006</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>233859</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="K4" s="14">
+        <v>170</v>
+      </c>
+      <c r="K4" s="13">
         <v>5000</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <v>68.5</v>
       </c>
       <c r="M4" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B4,", ",C4,", ",D4,",",E4,",'",F4,"','",G4,"','",H4,"',",I4,",'",J4,"',",K4,",'",L4,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B4,", ",C4,", ",E4,",",F4,",'",G4,"','",#REF!,"','",H4,"',",I4,",'",J4,"',",K4,",'",L4,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P4" s="8">
@@ -1277,42 +1248,39 @@
       </c>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>901407</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>2006</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>861705</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K5" s="14">
+        <v>171</v>
+      </c>
+      <c r="K5" s="13">
         <v>5000</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <v>73</v>
       </c>
       <c r="M5" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B5,", ",C5,", ",D5,",",E5,",'",F5,"','",G5,"','",H5,"',",I5,",'",J5,"',",K5,",'",L5,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B5,", ",C5,", ",E5,",",F5,",'",G5,"','",#REF!,"','",H5,"',",I5,",'",J5,"',",K5,",'",L5,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P5" s="8">
@@ -1320,42 +1288,39 @@
       </c>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1981184</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>2002</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>1522039</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K6" s="14">
+        <v>172</v>
+      </c>
+      <c r="K6" s="13">
         <v>11315</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="13">
         <v>75.5</v>
       </c>
       <c r="M6" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B6,", ",C6,", ",D6,",",E6,",'",F6,"','",G6,"','",H6,"',",I6,",'",J6,"',",K6,",'",L6,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B6,", ",C6,", ",E6,",",F6,",'",G6,"','",#REF!,"','",H6,"',",I6,",'",J6,"',",K6,",'",L6,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P6" s="8">
@@ -1363,260 +1328,242 @@
       </c>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>2231097</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>2005</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="K7" s="14">
+        <v>173</v>
+      </c>
+      <c r="K7" s="13">
         <v>5000</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="13">
         <v>70</v>
       </c>
       <c r="M7" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B7,", ",C7,", ",D7,",",E7,",'",F7,"','",G7,"','",H7,"',",I7,",'",J7,"',",K7,",'",L7,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B7,", ",C7,", ",E7,",",F7,",'",G7,"','",#REF!,"','",H7,"',",I7,",'",J7,"',",K7,",'",L7,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P7" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>504764</v>
       </c>
-      <c r="F8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>141</v>
+      <c r="G8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="K8" s="14">
+        <v>174</v>
+      </c>
+      <c r="K8" s="13">
         <v>4300</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="13">
         <v>74</v>
       </c>
       <c r="M8" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B8,", ",C8,", ",D8,",",E8,",'",F8,"','",G8,"','",H8,"',",I8,",'",J8,"',",K8,",'",L8,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B8,", ",C8,", ",E8,",",F8,",'",G8,"','",#REF!,"','",H8,"',",I8,",'",J8,"',",K8,",'",L8,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P8" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>478009</v>
       </c>
-      <c r="F9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>142</v>
+      <c r="G9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>216</v>
+        <v>175</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="M9" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B9,", ",C9,", ",D9,",",E9,",'",F9,"','",G9,"','",H9,"',",I9,",'",J9,"',",K9,",'",L9,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B9,", ",C9,", ",E9,",",F9,",'",G9,"','",#REF!,"','",H9,"',",I9,",'",J9,"',",K9,",'",L9,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P9" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>1311155</v>
       </c>
-      <c r="F10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>143</v>
+      <c r="G10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>217</v>
+        <v>123</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="M10" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B10,", ",C10,", ",D10,",",E10,",'",F10,"','",G10,"','",H10,"',",I10,",'",J10,"',",K10,",'",L10,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B10,", ",C10,", ",E10,",",F10,",'",G10,"','",#REF!,"','",H10,"',",I10,",'",J10,"',",K10,",'",L10,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P10" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>1914290</v>
       </c>
-      <c r="F11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>145</v>
+      <c r="G11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>218</v>
+        <v>176</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="M11" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B11,", ",C11,", ",D11,",",E11,",'",F11,"','",G11,"','",H11,"',",I11,",'",J11,"',",K11,",'",L11,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B11,", ",C11,", ",E11,",",F11,",'",G11,"','",#REF!,"','",H11,"',",I11,",'",J11,"',",K11,",'",L11,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P11" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>955488</v>
       </c>
-      <c r="F12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>143</v>
+      <c r="G12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>219</v>
+        <v>123</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="M12" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B12,", ",C12,", ",D12,",",E12,",'",F12,"','",G12,"','",H12,"',",I12,",'",J12,"',",K12,",'",L12,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B12,", ",C12,", ",E12,",",F12,",'",G12,"','",#REF!,"','",H12,"',",I12,",'",J12,"',",K12,",'",L12,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P12" s="8">
         <v>3</v>
       </c>
-      <c r="R12" s="15"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <v>2</v>
       </c>
@@ -1624,419 +1571,392 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>252087</v>
       </c>
-      <c r="F13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>143</v>
+      <c r="G13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>220</v>
+        <v>177</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="M13" s="2" t="str">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_AUTOTANQUE] 0,0, ",B13,", ",C13,", ",D13,",",E13,",'",F13,"','",G13,"','",H13,"',",I13,",'",J13,"',",K13,",'",L13,"'; ")</f>
-        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_DETALLE_AUTOTANQUE] 0,0, 2, 11, 0,252087,'DX06774','GMC','N/D',0,'3GCM7HIMXVM501317',12500,'26'; </v>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, ",B13,", ",C13,",",D13,", ",E13,",",F13,",'",G13,"','",H13,"',",I13,",'",J13,"',",K13,",'",L13,"'; ")</f>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 2, 11,2, 0,252087,'DX06774','N/D',0,'3GCM7HIMXVM501317',12500,'26'; </v>
       </c>
       <c r="P13" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <v>12</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>1901550</v>
       </c>
-      <c r="F14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>147</v>
+      <c r="G14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>221</v>
+        <v>178</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="M14" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B14,", ",C14,", ",D14,",",E14,",'",F14,"','",G14,"','",H14,"',",I14,",'",J14,"',",K14,",'",L14,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B14,", ",C14,", ",E14,",",F14,",'",G14,"','",#REF!,"','",H14,"',",I14,",'",J14,"',",K14,",'",L14,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P14" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <v>13</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>2136581</v>
       </c>
-      <c r="F15" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>149</v>
+      <c r="G15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>222</v>
+        <v>179</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="M15" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B15,", ",C15,", ",D15,",",E15,",'",F15,"','",G15,"','",H15,"',",I15,",'",J15,"',",K15,",'",L15,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B15,", ",C15,", ",E15,",",F15,",'",G15,"','",#REF!,"','",H15,"',",I15,",'",J15,"',",K15,",'",L15,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P15" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="B16" s="3">
         <v>14</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>5562873</v>
       </c>
-      <c r="F16" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>143</v>
+      <c r="G16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>223</v>
+        <v>180</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="M16" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B16,", ",C16,", ",D16,",",E16,",'",F16,"','",G16,"','",H16,"',",I16,",'",J16,"',",K16,",'",L16,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B16,", ",C16,", ",E16,",",F16,",'",G16,"','",#REF!,"','",H16,"',",I16,",'",J16,"',",K16,",'",L16,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P16" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B17" s="3">
         <v>15</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>830297</v>
       </c>
-      <c r="F17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>153</v>
+      <c r="G17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>224</v>
+        <v>181</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="M17" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B17,", ",C17,", ",D17,",",E17,",'",F17,"','",G17,"','",H17,"',",I17,",'",J17,"',",K17,",'",L17,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B17,", ",C17,", ",E17,",",F17,",'",G17,"','",#REF!,"','",H17,"',",I17,",'",J17,"',",K17,",'",L17,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P17" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B18" s="3">
         <v>16</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>1696797</v>
       </c>
-      <c r="F18" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>155</v>
+      <c r="G18" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>225</v>
+        <v>182</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="M18" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B18,", ",C18,", ",D18,",",E18,",'",F18,"','",G18,"','",H18,"',",I18,",'",J18,"',",K18,",'",L18,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B18,", ",C18,", ",E18,",",F18,",'",G18,"','",#REF!,"','",H18,"',",I18,",'",J18,"',",K18,",'",L18,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P18" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
         <v>17</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>1419365</v>
       </c>
-      <c r="F19" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>157</v>
+      <c r="G19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>226</v>
+        <v>183</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="M19" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B19,", ",C19,", ",D19,",",E19,",'",F19,"','",G19,"','",H19,"',",I19,",'",J19,"',",K19,",'",L19,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B19,", ",C19,", ",E19,",",F19,",'",G19,"','",#REF!,"','",H19,"',",I19,",'",J19,"',",K19,",'",L19,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P19" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B20" s="3">
         <v>18</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>3998929</v>
       </c>
-      <c r="F20" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>158</v>
+      <c r="G20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>227</v>
+        <v>184</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="M20" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B20,", ",C20,", ",D20,",",E20,",'",F20,"','",G20,"','",H20,"',",I20,",'",J20,"',",K20,",'",L20,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B20,", ",C20,", ",E20,",",F20,",'",G20,"','",#REF!,"','",H20,"',",I20,",'",J20,"',",K20,",'",L20,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P20" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B21" s="3">
         <v>19</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>2712677</v>
       </c>
-      <c r="F21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>143</v>
+      <c r="G21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>228</v>
+        <v>123</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="M21" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B21,", ",C21,", ",D21,",",E21,",'",F21,"','",G21,"','",H21,"',",I21,",'",J21,"',",K21,",'",L21,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B21,", ",C21,", ",E21,",",F21,",'",G21,"','",#REF!,"','",H21,"',",I21,",'",J21,"',",K21,",'",L21,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P21" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B22" s="3">
         <v>20</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
       <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>1410981</v>
       </c>
-      <c r="F22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>143</v>
+      <c r="G22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>229</v>
+        <v>123</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="M22" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B22,", ",C22,", ",D22,",",E22,",'",F22,"','",G22,"','",H22,"',",I22,",'",J22,"',",K22,",'",L22,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B22,", ",C22,", ",E22,",",F22,",'",G22,"','",#REF!,"','",H22,"',",I22,",'",J22,"',",K22,",'",L22,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P22" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B23" s="3">
         <v>3</v>
       </c>
@@ -2044,419 +1964,392 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>28466678</v>
       </c>
-      <c r="F23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>159</v>
+      <c r="G23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>143</v>
+        <v>185</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="M23" s="2" t="str">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_AUTOTANQUE] 0,0, ",B23,", ",C23,", ",D23,",",E23,",'",F23,"','",G23,"','",H23,"',",I23,",'",J23,"',",K23,",'",L23,"'; ")</f>
-        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_DETALLE_AUTOTANQUE] 0,0, 3, 21, 0,28466678,'N/D','GMC','1997',1978555,'1GBL7H1PXRJ1078',12500,'0'; </v>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, ",B23,", ",C23,",",D23,", ",E23,",",F23,",'",G23,"','",H23,"',",I23,",'",J23,"',",K23,",'",L23,"'; ")</f>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 3, 21,3, 0,28466678,'N/D','1997',1978555,'1GBL7H1PXRJ1078',12500,'0'; </v>
       </c>
       <c r="P23" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B24" s="3">
         <v>22</v>
       </c>
       <c r="C24">
         <v>22</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>3486404</v>
       </c>
-      <c r="F24" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>160</v>
+      <c r="G24" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>230</v>
+        <v>186</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="M24" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B24,", ",C24,", ",D24,",",E24,",'",F24,"','",G24,"','",H24,"',",I24,",'",J24,"',",K24,",'",L24,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B24,", ",C24,", ",E24,",",F24,",'",G24,"','",#REF!,"','",H24,"',",I24,",'",J24,"',",K24,",'",L24,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P24" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B25" s="3">
         <v>23</v>
       </c>
       <c r="C25">
         <v>23</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>136286</v>
       </c>
-      <c r="F25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>163</v>
+      <c r="G25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>231</v>
+        <v>187</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="M25" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B25,", ",C25,", ",D25,",",E25,",'",F25,"','",G25,"','",H25,"',",I25,",'",J25,"',",K25,",'",L25,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B25,", ",C25,", ",E25,",",F25,",'",G25,"','",#REF!,"','",H25,"',",I25,",'",J25,"',",K25,",'",L25,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P25" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B26" s="3">
         <v>24</v>
       </c>
       <c r="C26">
         <v>24</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
       <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>2083770</v>
       </c>
-      <c r="F26" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>143</v>
+      <c r="G26" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>232</v>
+        <v>123</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="M26" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B26,", ",C26,", ",D26,",",E26,",'",F26,"','",G26,"','",H26,"',",I26,",'",J26,"',",K26,",'",L26,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B26,", ",C26,", ",E26,",",F26,",'",G26,"','",#REF!,"','",H26,"',",I26,",'",J26,"',",K26,",'",L26,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P26" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B27" s="3">
         <v>25</v>
       </c>
       <c r="C27">
         <v>25</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
       <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>378890</v>
       </c>
-      <c r="F27" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>166</v>
+      <c r="G27" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>143</v>
+        <v>188</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="M27" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B27,", ",C27,", ",D27,",",E27,",'",F27,"','",G27,"','",H27,"',",I27,",'",J27,"',",K27,",'",L27,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B27,", ",C27,", ",E27,",",F27,",'",G27,"','",#REF!,"','",H27,"',",I27,",'",J27,"',",K27,",'",L27,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P27" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B28" s="3">
         <v>26</v>
       </c>
       <c r="C28">
         <v>26</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
       <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>1093487</v>
       </c>
-      <c r="F28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>167</v>
+      <c r="G28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>143</v>
+        <v>189</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="M28" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B28,", ",C28,", ",D28,",",E28,",'",F28,"','",G28,"','",H28,"',",I28,",'",J28,"',",K28,",'",L28,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B28,", ",C28,", ",E28,",",F28,",'",G28,"','",#REF!,"','",H28,"',",I28,",'",J28,"',",K28,",'",L28,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P28" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B29" s="3">
         <v>27</v>
       </c>
       <c r="C29">
         <v>27</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
       <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>3332044</v>
       </c>
-      <c r="F29" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>143</v>
+      <c r="G29" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>143</v>
+        <v>123</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="M29" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B29,", ",C29,", ",D29,",",E29,",'",F29,"','",G29,"','",H29,"',",I29,",'",J29,"',",K29,",'",L29,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B29,", ",C29,", ",E29,",",F29,",'",G29,"','",#REF!,"','",H29,"',",I29,",'",J29,"',",K29,",'",L29,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P29" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B30" s="3">
         <v>28</v>
       </c>
       <c r="C30">
         <v>28</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
       <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>468176</v>
       </c>
-      <c r="F30" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>170</v>
+      <c r="G30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>143</v>
+        <v>190</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="M30" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B30,", ",C30,", ",D30,",",E30,",'",F30,"','",G30,"','",H30,"',",I30,",'",J30,"',",K30,",'",L30,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B30,", ",C30,", ",E30,",",F30,",'",G30,"','",#REF!,"','",H30,"',",I30,",'",J30,"',",K30,",'",L30,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P30" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B31" s="3">
         <v>29</v>
       </c>
       <c r="C31">
         <v>29</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
       <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>1553369</v>
       </c>
-      <c r="F31" t="s">
-        <v>125</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>143</v>
+      <c r="G31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>143</v>
+        <v>189</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="M31" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B31,", ",C31,", ",D31,",",E31,",'",F31,"','",G31,"','",H31,"',",I31,",'",J31,"',",K31,",'",L31,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B31,", ",C31,", ",E31,",",F31,",'",G31,"','",#REF!,"','",H31,"',",I31,",'",J31,"',",K31,",'",L31,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P31" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B32" s="3">
         <v>30</v>
       </c>
       <c r="C32">
         <v>30</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
       <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>4202089</v>
       </c>
-      <c r="F32" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>171</v>
+      <c r="G32" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>143</v>
+        <v>191</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="M32" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B32,", ",C32,", ",D32,",",E32,",'",F32,"','",G32,"','",H32,"',",I32,",'",J32,"',",K32,",'",L32,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B32,", ",C32,", ",E32,",",F32,",'",G32,"','",#REF!,"','",H32,"',",I32,",'",J32,"',",K32,",'",L32,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P32" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B33" s="3">
         <v>4</v>
       </c>
@@ -2464,419 +2357,392 @@
         <v>31</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>1899661</v>
       </c>
-      <c r="F33" t="s">
-        <v>125</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>143</v>
+      <c r="G33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>143</v>
+        <v>123</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="M33" s="2" t="str">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_AUTOTANQUE] 0,0, ",B33,", ",C33,", ",D33,",",E33,",'",F33,"','",G33,"','",H33,"',",I33,",'",J33,"',",K33,",'",L33,"'; ")</f>
-        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_DETALLE_AUTOTANQUE] 0,0, 4, 31, 0,1899661,'N/D','N/D','N/D',0,'N/D',0,'0'; </v>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, ",B33,", ",C33,",",D33,", ",E33,",",F33,",'",G33,"','",H33,"',",I33,",'",J33,"',",K33,",'",L33,"'; ")</f>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 4, 31,1, 0,1899661,'N/D','N/D',0,'N/D',0,'0'; </v>
       </c>
       <c r="P33" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B34" s="3">
         <v>32</v>
       </c>
       <c r="C34">
         <v>32</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
       <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>2756981</v>
       </c>
-      <c r="F34" t="s">
-        <v>125</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>143</v>
+      <c r="G34" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>143</v>
+        <v>123</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="M34" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B34,", ",C34,", ",D34,",",E34,",'",F34,"','",G34,"','",H34,"',",I34,",'",J34,"',",K34,",'",L34,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B34,", ",C34,", ",E34,",",F34,",'",G34,"','",#REF!,"','",H34,"',",I34,",'",J34,"',",K34,",'",L34,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P34" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B35" s="3">
         <v>33</v>
       </c>
       <c r="C35">
         <v>33</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
       <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>2379843</v>
       </c>
-      <c r="F35" t="s">
-        <v>136</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>143</v>
+      <c r="G35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>143</v>
+        <v>123</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="M35" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B35,", ",C35,", ",D35,",",E35,",'",F35,"','",G35,"','",H35,"',",I35,",'",J35,"',",K35,",'",L35,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B35,", ",C35,", ",E35,",",F35,",'",G35,"','",#REF!,"','",H35,"',",I35,",'",J35,"',",K35,",'",L35,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P35" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B36" s="3">
         <v>34</v>
       </c>
       <c r="C36">
         <v>34</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
       <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
         <v>2640765</v>
       </c>
-      <c r="F36" t="s">
-        <v>125</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>143</v>
+      <c r="G36" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>143</v>
+        <v>123</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="M36" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B36,", ",C36,", ",D36,",",E36,",'",F36,"','",G36,"','",H36,"',",I36,",'",J36,"',",K36,",'",L36,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B36,", ",C36,", ",E36,",",F36,",'",G36,"','",#REF!,"','",H36,"',",I36,",'",J36,"',",K36,",'",L36,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P36" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B37" s="3">
         <v>35</v>
       </c>
       <c r="C37">
         <v>35</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
       <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>613949</v>
       </c>
-      <c r="F37" t="s">
-        <v>125</v>
-      </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I37" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="H37" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>172</v>
-      </c>
       <c r="J37" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>143</v>
+        <v>192</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="M37" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B37,", ",C37,", ",D37,",",E37,",'",F37,"','",G37,"','",H37,"',",I37,",'",J37,"',",K37,",'",L37,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B37,", ",C37,", ",E37,",",F37,",'",G37,"','",#REF!,"','",H37,"',",I37,",'",J37,"',",K37,",'",L37,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P37" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B38" s="3">
         <v>36</v>
       </c>
       <c r="C38">
         <v>36</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
       <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
         <v>1818505</v>
       </c>
-      <c r="F38" t="s">
-        <v>125</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>143</v>
+      <c r="G38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>143</v>
+        <v>123</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="M38" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B38,", ",C38,", ",D38,",",E38,",'",F38,"','",G38,"','",H38,"',",I38,",'",J38,"',",K38,",'",L38,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B38,", ",C38,", ",E38,",",F38,",'",G38,"','",#REF!,"','",H38,"',",I38,",'",J38,"',",K38,",'",L38,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P38" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B39" s="3">
         <v>37</v>
       </c>
       <c r="C39">
         <v>37</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
       <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>1346738</v>
       </c>
-      <c r="F39" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>173</v>
+      <c r="G39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>143</v>
+        <v>193</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="M39" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B39,", ",C39,", ",D39,",",E39,",'",F39,"','",G39,"','",H39,"',",I39,",'",J39,"',",K39,",'",L39,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B39,", ",C39,", ",E39,",",F39,",'",G39,"','",#REF!,"','",H39,"',",I39,",'",J39,"',",K39,",'",L39,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P39" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B40" s="3">
         <v>38</v>
       </c>
       <c r="C40">
         <v>38</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
       <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <v>148707</v>
       </c>
-      <c r="F40" t="s">
-        <v>125</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>143</v>
+      <c r="G40" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>143</v>
+        <v>123</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="M40" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B40,", ",C40,", ",D40,",",E40,",'",F40,"','",G40,"','",H40,"',",I40,",'",J40,"',",K40,",'",L40,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B40,", ",C40,", ",E40,",",F40,",'",G40,"','",#REF!,"','",H40,"',",I40,",'",J40,"',",K40,",'",L40,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P40" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B41" s="3">
         <v>39</v>
       </c>
       <c r="C41">
         <v>39</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
       <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>68978</v>
       </c>
-      <c r="F41" t="s">
-        <v>125</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>143</v>
+      <c r="G41" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>143</v>
+        <v>123</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="M41" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B41,", ",C41,", ",D41,",",E41,",'",F41,"','",G41,"','",H41,"',",I41,",'",J41,"',",K41,",'",L41,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B41,", ",C41,", ",E41,",",F41,",'",G41,"','",#REF!,"','",H41,"',",I41,",'",J41,"',",K41,",'",L41,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P41" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B42" s="3">
         <v>40</v>
       </c>
       <c r="C42">
         <v>40</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
       <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
         <v>1869398</v>
       </c>
-      <c r="F42" t="s">
-        <v>136</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>143</v>
+      <c r="G42" t="s">
+        <v>134</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>143</v>
+        <v>123</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="M42" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B42,", ",C42,", ",D42,",",E42,",'",F42,"','",G42,"','",H42,"',",I42,",'",J42,"',",K42,",'",L42,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B42,", ",C42,", ",E42,",",F42,",'",G42,"','",#REF!,"','",H42,"',",I42,",'",J42,"',",K42,",'",L42,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P42" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B43" s="3">
         <v>5</v>
       </c>
@@ -2884,421 +2750,394 @@
         <v>41</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43" t="s">
-        <v>125</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>174</v>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>143</v>
+        <v>194</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="M43" s="2" t="str">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_AUTOTANQUE] 0,0, ",B43,", ",C43,", ",D43,",",E43,",'",F43,"','",G43,"','",H43,"',",I43,",'",J43,"',",K43,",'",L43,"'; ")</f>
-        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_DETALLE_AUTOTANQUE] 0,0, 5, 41, 0,0,'N/D','NISSAN','2010',31741,'0144S02470505EAB',0,'0'; </v>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, ",B43,", ",C43,",",D43,", ",E43,",",F43,",'",G43,"','",H43,"',",I43,",'",J43,"',",K43,",'",L43,"'; ")</f>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 5, 41,2, 0,0,'N/D','2010',31741,'0144S02470505EAB',0,'0'; </v>
       </c>
       <c r="P43" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B44" s="3">
         <v>42</v>
       </c>
       <c r="C44">
         <v>42</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
       <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
         <v>4769680</v>
       </c>
-      <c r="F44" t="s">
-        <v>137</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>143</v>
+      <c r="G44" t="s">
+        <v>135</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>143</v>
+        <v>123</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="M44" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B44,", ",C44,", ",D44,",",E44,",'",F44,"','",G44,"','",H44,"',",I44,",'",J44,"',",K44,",'",L44,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B44,", ",C44,", ",E44,",",F44,",'",G44,"','",#REF!,"','",H44,"',",I44,",'",J44,"',",K44,",'",L44,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P44" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B45" s="3">
         <v>43</v>
       </c>
       <c r="C45">
         <v>43</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
       <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>436731</v>
       </c>
-      <c r="F45" t="s">
-        <v>125</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>143</v>
+      <c r="G45" t="s">
+        <v>123</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>143</v>
+        <v>123</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="M45" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B45,", ",C45,", ",D45,",",E45,",'",F45,"','",G45,"','",H45,"',",I45,",'",J45,"',",K45,",'",L45,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B45,", ",C45,", ",E45,",",F45,",'",G45,"','",#REF!,"','",H45,"',",I45,",'",J45,"',",K45,",'",L45,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P45" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B46" s="3">
         <v>44</v>
       </c>
       <c r="C46">
         <v>44</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
       <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
         <v>321083</v>
       </c>
-      <c r="F46" t="s">
-        <v>125</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>175</v>
+      <c r="G46" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>233</v>
+        <v>123</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="M46" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B46,", ",C46,", ",D46,",",E46,",'",F46,"','",G46,"','",H46,"',",I46,",'",J46,"',",K46,",'",L46,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B46,", ",C46,", ",E46,",",F46,",'",G46,"','",#REF!,"','",H46,"',",I46,",'",J46,"',",K46,",'",L46,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P46" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B47" s="3">
         <v>45</v>
       </c>
       <c r="C47">
         <v>45</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
       <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
         <v>800766</v>
       </c>
-      <c r="F47" t="s">
-        <v>125</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I47" s="12">
+      <c r="G47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I47" s="11">
         <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>234</v>
+        <v>123</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="M47" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B47,", ",C47,", ",D47,",",E47,",'",F47,"','",G47,"','",H47,"',",I47,",'",J47,"',",K47,",'",L47,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B47,", ",C47,", ",E47,",",F47,",'",G47,"','",#REF!,"','",H47,"',",I47,",'",J47,"',",K47,",'",L47,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P47" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B48" s="3">
         <v>46</v>
       </c>
       <c r="C48">
         <v>46</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
       <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>125</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I48" s="12">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>123</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48" s="11">
         <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="L48" s="13" t="s">
-        <v>234</v>
+        <v>123</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="M48" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B48,", ",C48,", ",D48,",",E48,",'",F48,"','",G48,"','",H48,"',",I48,",'",J48,"',",K48,",'",L48,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B48,", ",C48,", ",E48,",",F48,",'",G48,"','",#REF!,"','",H48,"',",I48,",'",J48,"',",K48,",'",L48,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P48" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B49" s="3">
         <v>47</v>
       </c>
       <c r="C49">
         <v>47</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
       <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
         <v>662985</v>
       </c>
-      <c r="F49" t="s">
-        <v>125</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>178</v>
+      <c r="G49" t="s">
+        <v>123</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>235</v>
+        <v>195</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="M49" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B49,", ",C49,", ",D49,",",E49,",'",F49,"','",G49,"','",H49,"',",I49,",'",J49,"',",K49,",'",L49,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B49,", ",C49,", ",E49,",",F49,",'",G49,"','",#REF!,"','",H49,"',",I49,",'",J49,"',",K49,",'",L49,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P49" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B50" s="3">
         <v>48</v>
       </c>
       <c r="C50">
         <v>48</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
       <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
         <v>2042134</v>
       </c>
-      <c r="F50" t="s">
-        <v>125</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>143</v>
+      <c r="G50" t="s">
+        <v>123</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K50" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="L50" s="13" t="s">
-        <v>233</v>
+        <v>123</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="M50" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B50,", ",C50,", ",D50,",",E50,",'",F50,"','",G50,"','",H50,"',",I50,",'",J50,"',",K50,",'",L50,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B50,", ",C50,", ",E50,",",F50,",'",G50,"','",#REF!,"','",H50,"',",I50,",'",J50,"',",K50,",'",L50,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
       <c r="P50" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B51" s="3">
         <v>49</v>
       </c>
       <c r="C51">
         <v>49</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
       <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
         <v>497576</v>
       </c>
-      <c r="F51" t="s">
-        <v>125</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>143</v>
+      <c r="G51" t="s">
+        <v>123</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="L51" s="13" t="s">
-        <v>236</v>
+        <v>123</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="M51" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B51,", ",C51,", ",D51,",",E51,",'",F51,"','",G51,"','",H51,"',",I51,",'",J51,"',",K51,",'",L51,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B51,", ",C51,", ",E51,",",F51,",'",G51,"','",#REF!,"','",H51,"',",I51,",'",J51,"',",K51,",'",L51,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="B52" s="3">
         <v>50</v>
       </c>
       <c r="C52">
         <v>50</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" t="s">
-        <v>125</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>143</v>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>123</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="L52" s="13" t="s">
-        <v>236</v>
+        <v>123</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="M52" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B52,", ",C52,", ",D52,",",E52,",'",F52,"','",G52,"','",H52,"',",I52,",'",J52,"',",K52,",'",L52,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B52,", ",C52,", ",E52,",",F52,",'",G52,"','",#REF!,"','",H52,"',",I52,",'",J52,"',",K52,",'",L52,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="K53" s="13" t="s">
-        <v>205</v>
+    <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="K53" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="M53" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B53,", ",C53,", ",D53,",",E53,",'",F53,"','",G53,"','",H53,"',",I53,",'",J53,"',",K53,",'",L53,"','",#REF!,"','",#REF!,"'; ")</f>
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B53,", ",C53,", ",E53,",",F53,",'",G53,"','",#REF!,"','",H53,"',",I53,",'",J53,"',",K53,",'",L53,"','",#REF!,"','",#REF!,"'; ")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -3323,9 +3162,9 @@
       <selection activeCell="I1" sqref="I1:I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3375,7 +3214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3425,7 +3264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3475,7 +3314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3525,7 +3364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -3575,7 +3414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -3625,7 +3464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -3675,7 +3514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -3725,7 +3564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -3775,7 +3614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -3825,7 +3664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -3875,7 +3714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3925,7 +3764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -3975,7 +3814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -4025,7 +3864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -4075,7 +3914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -4125,7 +3964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -4175,7 +4014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -4225,7 +4064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -4275,7 +4114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -4325,7 +4164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -4375,7 +4214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -4425,7 +4264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -4475,7 +4314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -4525,7 +4364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -4575,7 +4414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -4625,7 +4464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -4675,7 +4514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -4725,7 +4564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -4775,7 +4614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -4825,7 +4664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -4875,7 +4714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -4925,7 +4764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -4975,7 +4814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -5025,7 +4864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -5075,7 +4914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -5125,7 +4964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -5175,7 +5014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -5225,7 +5064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -5275,7 +5114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -5325,7 +5164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -5375,7 +5214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -5425,7 +5264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -5475,7 +5314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -5525,7 +5364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -5575,7 +5414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -5625,7 +5464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -5675,7 +5514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -5725,7 +5564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -5775,7 +5614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>1</v>
       </c>

--- a/Scripts_R210_FuerzaVenta/LIQ19_R110_10.b_CI_Ficha_Autotanque_20190131_JAR.XLSX
+++ b/Scripts_R210_FuerzaVenta/LIQ19_R110_10.b_CI_Ficha_Autotanque_20190131_JAR.XLSX
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tomza.TI\JArciniegaR.TI\1.SOL_Soluciones\LIQ19_Liquidaciones\Codigo\CodigoSQL\LIQ19_Liberacion_R0.00_Base_V0004\Scripts_R210_FuerzaVenta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tomza.TI\JArciniegaR.TI\1.SOL_Soluciones\LIQ19_Liquidaciones\Codigo\CodigoSQL\LIQ19_Liberacion_R0.00_Base_V0006\Scripts_R210_FuerzaVenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,6 @@
     <sheet name="PRODUCTO" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PRODUCTO!$P$2:$P$53</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="250">
   <si>
     <t>K_PUNTO_VENTA</t>
   </si>
@@ -369,21 +366,6 @@
     <t>MATRICULA</t>
   </si>
   <si>
-    <t>ABC123</t>
-  </si>
-  <si>
-    <t>BCD345</t>
-  </si>
-  <si>
-    <t>EDE657</t>
-  </si>
-  <si>
-    <t>FEFE889</t>
-  </si>
-  <si>
-    <t>MAT123</t>
-  </si>
-  <si>
     <t>MODELO</t>
   </si>
   <si>
@@ -432,114 +414,39 @@
     <t>DV10419</t>
   </si>
   <si>
-    <t>DV10353</t>
-  </si>
-  <si>
-    <t>DV10359</t>
-  </si>
-  <si>
     <t>2006</t>
   </si>
   <si>
-    <t>164292</t>
-  </si>
-  <si>
-    <t>141076</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
     <t>1997</t>
   </si>
   <si>
-    <t>1578795</t>
-  </si>
-  <si>
     <t>1990</t>
   </si>
   <si>
-    <t>61784</t>
-  </si>
-  <si>
     <t>1996</t>
   </si>
   <si>
-    <t>170980</t>
-  </si>
-  <si>
     <t>2005</t>
   </si>
   <si>
     <t>1995</t>
   </si>
   <si>
-    <t>2099804</t>
-  </si>
-  <si>
     <t>1992</t>
   </si>
   <si>
-    <t>1881350</t>
-  </si>
-  <si>
     <t>2002</t>
   </si>
   <si>
-    <t>2443861</t>
-  </si>
-  <si>
-    <t>1946859</t>
-  </si>
-  <si>
-    <t>1978555</t>
-  </si>
-  <si>
-    <t>1276028</t>
-  </si>
-  <si>
     <t>2001</t>
   </si>
   <si>
-    <t>1733700</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>29056</t>
-  </si>
-  <si>
-    <t>17711</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>22098</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>228.6</t>
-  </si>
-  <si>
-    <t>31741</t>
-  </si>
-  <si>
-    <t>8911979</t>
-  </si>
-  <si>
     <t>2008</t>
   </si>
   <si>
-    <t>56309</t>
-  </si>
-  <si>
     <t>3GBKC34G55M118806</t>
   </si>
   <si>
@@ -594,27 +501,6 @@
     <t>1GDJ7H1E12J505377</t>
   </si>
   <si>
-    <t>013FB0473C4F544B</t>
-  </si>
-  <si>
-    <t>0136B07390508612</t>
-  </si>
-  <si>
-    <t>3N6DD14577K040339</t>
-  </si>
-  <si>
-    <t>013AB067801076420</t>
-  </si>
-  <si>
-    <t>3N6DD14547K040525</t>
-  </si>
-  <si>
-    <t>3N6DD14568K002327</t>
-  </si>
-  <si>
-    <t>0144S02470505EAB</t>
-  </si>
-  <si>
     <t>3NGDD14528K021599</t>
   </si>
   <si>
@@ -642,9 +528,6 @@
     <t>6850</t>
   </si>
   <si>
-    <t>4750</t>
-  </si>
-  <si>
     <t>3500</t>
   </si>
   <si>
@@ -702,12 +585,6 @@
     <t>54.5</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>73</t>
   </si>
   <si>
@@ -717,17 +594,194 @@
     <t>K_DETALLE_AUTOTANQUE</t>
   </si>
   <si>
-    <t>tipo</t>
-  </si>
-  <si>
     <t>K_MARCA</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>68.5</t>
+  </si>
+  <si>
+    <t>75.5</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>76.5</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>91.5</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>36.5</t>
+  </si>
+  <si>
+    <t>65.5</t>
+  </si>
+  <si>
+    <t>SIN PLACAS</t>
+  </si>
+  <si>
+    <t>DY2983</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>1GDJ7H1E32J502051</t>
+  </si>
+  <si>
+    <t>1GDG6H1P9WJ518839</t>
+  </si>
+  <si>
+    <t>3GBKC34GX5M101</t>
+  </si>
+  <si>
+    <t>1GDJ7HHB5XJ503294</t>
+  </si>
+  <si>
+    <t>1GDJ7H1B6XJSO2123</t>
+  </si>
+  <si>
+    <t>IFDEF3GED43109</t>
+  </si>
+  <si>
+    <t>3GB3C9CGXHG271256</t>
+  </si>
+  <si>
+    <t>3GB3C9CG8HG267528</t>
+  </si>
+  <si>
+    <t>3GB3C9CGOHG269760</t>
+  </si>
+  <si>
+    <t>3GB3C9CG2HG269761</t>
+  </si>
+  <si>
+    <t>3GB3C9CG4HG273830</t>
+  </si>
+  <si>
+    <t>1G1GDJ6H1BXXJ50</t>
+  </si>
+  <si>
+    <t>11315</t>
+  </si>
+  <si>
+    <t>4300</t>
+  </si>
+  <si>
+    <t>16527</t>
+  </si>
+  <si>
+    <t>10700</t>
+  </si>
+  <si>
+    <t>19500</t>
+  </si>
+  <si>
+    <t>6300</t>
+  </si>
+  <si>
+    <t>9173</t>
+  </si>
+  <si>
+    <t>9931.66</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>9072</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>4110</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>7900</t>
+  </si>
+  <si>
+    <t>9462</t>
+  </si>
+  <si>
+    <t>12250</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,12 +807,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -784,10 +850,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -796,26 +863,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1093,47 +1161,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B2:U53"/>
+  <dimension ref="B2:T68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3:M53"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3:M68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1328125" customWidth="1"/>
-    <col min="2" max="2" width="13.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="122.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.86328125" customWidth="1"/>
-    <col min="19" max="19" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="122.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.85546875" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>110</v>
@@ -1144,2011 +1210,2600 @@
       <c r="G2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>119</v>
+      <c r="H2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>914890</v>
-      </c>
-      <c r="G3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="13">
-        <v>0</v>
-      </c>
-      <c r="L3" s="13">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="E3" s="10">
+        <v>901407</v>
+      </c>
+      <c r="F3" s="10">
+        <v>73</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="15">
+        <v>56309</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="M3" s="2" t="str">
         <f>CONCATENATE("EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, ",B3,", ",C3,",",D3,", ",E3,",",F3,",'",G3,"','",H3,"',",I3,",'",J3,"',",K3,",'",L3,"'; ")</f>
-        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 1, 1,1, 0,914890,'ABC123','N/D',0,'N/D',0,'0'; </v>
-      </c>
-      <c r="P3" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 1, 1,101, 901407,73,'N/D','2008',56309,'3NGDD14528K021599',1866,'73'; </v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1363545</v>
-      </c>
-      <c r="G4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="11">
-        <v>2006</v>
-      </c>
-      <c r="I4" s="11">
-        <v>233859</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K4" s="13">
-        <v>5000</v>
-      </c>
-      <c r="L4" s="13">
-        <v>68.5</v>
-      </c>
-      <c r="M4" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B4,", ",C4,", ",E4,",",F4,",'",G4,"','",#REF!,"','",H4,"',",I4,",'",J4,"',",K4,",'",L4,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P4" s="8">
-        <v>3</v>
-      </c>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
+      <c r="D4">
+        <v>102</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, ",B4,", ",C4,",",D4,", ",E4,",",F4,",'",G4,"','",H4,"',",I4,",'",J4,"',",K4,",'",L4,"'; ")</f>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 2, 2,102, 0,0,'N/D','N/D',0,'N/D',0,'0.0000'; </v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>901407</v>
-      </c>
-      <c r="G5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="11">
-        <v>2006</v>
-      </c>
-      <c r="I5" s="11">
-        <v>861705</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="K5" s="13">
-        <v>5000</v>
-      </c>
-      <c r="L5" s="13">
-        <v>73</v>
-      </c>
-      <c r="M5" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B5,", ",C5,", ",E5,",",F5,",'",G5,"','",#REF!,"','",H5,"',",I5,",'",J5,"',",K5,",'",L5,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P5" s="8">
-        <v>2</v>
-      </c>
-      <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
+      <c r="D5">
+        <v>103</v>
+      </c>
+      <c r="E5" s="10">
+        <v>558015</v>
+      </c>
+      <c r="F5" s="10">
+        <v>68.5</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="15">
+        <v>233859</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, ",B5,", ",C5,",",D5,", ",E5,",",F5,",'",G5,"','",H5,"',",I5,",'",J5,"',",K5,",'",L5,"'; ")</f>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 3, 3,103, 558015,68.5,'DV10365','2006',233859,'3GBKC34G55M118806',5000,'68.5'; </v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1981184</v>
-      </c>
-      <c r="G6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="11">
-        <v>2002</v>
-      </c>
-      <c r="I6" s="11">
-        <v>1522039</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="K6" s="13">
-        <v>11315</v>
-      </c>
-      <c r="L6" s="13">
-        <v>75.5</v>
-      </c>
-      <c r="M6" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B6,", ",C6,", ",E6,",",F6,",'",G6,"','",#REF!,"','",H6,"',",I6,",'",J6,"',",K6,",'",L6,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P6" s="8">
-        <v>3</v>
-      </c>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
+      <c r="D6">
+        <v>104</v>
+      </c>
+      <c r="E6" s="10">
+        <v>275176</v>
+      </c>
+      <c r="F6" s="10">
+        <v>73</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="15">
+        <v>861705</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, ",B6,", ",C6,",",D6,", ",E6,",",F6,",'",G6,"','",H6,"',",I6,",'",J6,"',",K6,",'",L6,"'; ")</f>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 4, 4,104, 275176,73,'N/D','2006',861705,'3GBKC34G75M118922',5000,'73'; </v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>2231097</v>
-      </c>
-      <c r="G7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="11">
-        <v>2005</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="K7" s="13">
-        <v>5000</v>
-      </c>
-      <c r="L7" s="13">
-        <v>70</v>
-      </c>
-      <c r="M7" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B7,", ",C7,", ",E7,",",F7,",'",G7,"','",#REF!,"','",H7,"',",I7,",'",J7,"',",K7,",'",L7,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P7" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
+      <c r="D7">
+        <v>201</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2929406</v>
+      </c>
+      <c r="F7" s="10">
+        <v>75.5</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1522039</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, ",B7,", ",C7,",",D7,", ",E7,",",F7,",'",G7,"','",H7,"',",I7,",'",J7,"',",K7,",'",L7,"'; ")</f>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 5, 5,201, 2929406,75.5,'ZTV6503','2002',1522039,'1GDJ7H1E4J901664',11315,'75.5'; </v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="9">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>504764</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="D8">
+        <v>202</v>
+      </c>
+      <c r="E8" s="10">
+        <v>666944</v>
+      </c>
+      <c r="F8" s="10">
+        <v>70</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f t="shared" ref="M8:M68" si="0">CONCATENATE("EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, ",B8,", ",C8,",",D8,", ",E8,",",F8,",'",G8,"','",H8,"',",I8,",'",J8,"',",K8,",'",L8,"'; ")</f>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 6, 6,202, 666944,70,'DW31616','2005',0,'3GBKC34GX5M101984',5000,'70'; </v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>203</v>
+      </c>
+      <c r="E9" s="10">
+        <v>223253</v>
+      </c>
+      <c r="F9" s="10">
+        <v>74</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="15">
+        <v>164292</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 8, 8,203, 223253,74,'DX06774','2006',164292,'3GBKC34G55M118837',4300,'74'; </v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>204</v>
+      </c>
+      <c r="E10" s="10">
+        <v>752518</v>
+      </c>
+      <c r="F10" s="10">
+        <v>69</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H10" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="15">
+        <v>141076</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="M10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 9, 9,204, 752518,69,'DV10363','2006',141076,'3GBKC34GX5M118915',5000,'69'; </v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>205</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2257974</v>
+      </c>
+      <c r="F11" s="10">
+        <v>22</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 11, 11,205, 2257974,22,'N/D','N/D',0,'N/D',12200,'22'; </v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>206</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2505007</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="15">
+        <v>1578795</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 12, 12,206, 2505007,1.5,'N/D','1997',1578795,'1GDG6H1P9RJ519414',12500,'1.5'; </v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>301</v>
+      </c>
+      <c r="E13" s="10">
+        <v>26722656</v>
+      </c>
+      <c r="F13" s="10">
+        <v>46</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 13, 13,301, 26722656,46,'N/D','N/D',0,'N/D',12500,'46'; </v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>14</v>
+      </c>
+      <c r="C14" s="9">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>302</v>
+      </c>
+      <c r="E14" s="10">
+        <v>201727</v>
+      </c>
+      <c r="F14" s="10">
+        <v>26</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 14, 14,302, 201727,26,'DV10362','N/D',0,'3GCM7HIMXVM501317',12500,'26'; </v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>15</v>
+      </c>
+      <c r="C15" s="9">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>303</v>
+      </c>
+      <c r="E15" s="10">
+        <v>85910</v>
+      </c>
+      <c r="F15" s="10">
+        <v>50</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="15">
+        <v>61784</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 15, 15,303, 85910,50,'N/D','1990',61784,'1GBM7H1P2PJ101461',12500,'50'; </v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>16</v>
+      </c>
+      <c r="C16" s="9">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>304</v>
+      </c>
+      <c r="E16" s="10">
+        <v>51552</v>
+      </c>
+      <c r="F16" s="10">
+        <v>20</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="15">
+        <v>170980</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 16, 16,304, 51552,20,'N/D','1996',170980,'1G1GDJ6H1BXXJ504086',10000,'20'; </v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>101</v>
+      </c>
+      <c r="E17" s="10">
+        <v>273324</v>
+      </c>
+      <c r="F17" s="10">
+        <v>62.5</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 17, 17,101, 273324,62.5,'DY-2983','2005',0,'3GBJ6H1E45M105516',8250,'62.5'; </v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>18</v>
+      </c>
+      <c r="C18" s="9">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>102</v>
+      </c>
+      <c r="E18" s="10">
+        <v>724398</v>
+      </c>
+      <c r="F18" s="10">
+        <v>40</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="15">
+        <v>2099804</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="M18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 18, 18,102, 724398,40,'N/D','1995',2099804,'1G017H1P45J520018',12500,'40'; </v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>19</v>
+      </c>
+      <c r="C19" s="9">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>103</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1150936</v>
+      </c>
+      <c r="F19" s="10">
+        <v>63.5</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I19" s="15">
+        <v>1881350</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 19, 19,103, 1150936,63.5,'N/D','1992',1881350,'1GDG6H1T7PJ504326',8670,'63.5'; </v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>20</v>
+      </c>
+      <c r="C20" s="9">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>104</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1107774</v>
+      </c>
+      <c r="F20" s="10">
+        <v>79.5</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="I20" s="15">
+        <v>2443861</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 20, 20,104, 1107774,79.5,'DV10456','2002',2443861,'3GBM7H1E62M104342',12500,'79.5'; </v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>21</v>
+      </c>
+      <c r="C21" s="9">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>201</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1688635</v>
+      </c>
+      <c r="F21" s="10">
+        <v>90.5</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="15">
+        <v>1946859</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 21, 21,201, 1688635,90.5,'DV10458','2002',1946859,'3GBM7H1E52M104266',12500,'90.5'; </v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>22</v>
+      </c>
+      <c r="C22" s="9">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>202</v>
+      </c>
+      <c r="E22" s="10">
+        <v>125533</v>
+      </c>
+      <c r="F22" s="10">
+        <v>15</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 22, 22,202, 125533,15,'N/D','N/D',0,'N/D',12500,'15'; </v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>23</v>
+      </c>
+      <c r="C23" s="9">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>203</v>
+      </c>
+      <c r="E23" s="10">
+        <v>473891</v>
+      </c>
+      <c r="F23" s="10">
+        <v>48.5</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="M23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 23, 23,203, 473891,48.5,'N/D','N/D',0,'N/D',12500,'48.5'; </v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>24</v>
+      </c>
+      <c r="C24" s="9">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>204</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1249012</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" s="15">
+        <v>1978555</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="M24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 24, 24,204, 1249012,0,'N/D','1997',1978555,'1GBL7H1PXRJ1078',12500,'0'; </v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>25</v>
+      </c>
+      <c r="C25" s="9">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>205</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1561673</v>
+      </c>
+      <c r="F25" s="10">
+        <v>66</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" s="15">
+        <v>1276028</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="M25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 25, 25,205, 1561673,66,'DV10419','1995',1276028,'1GDG6H1P6TJ504599',12500,'66'; </v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>26</v>
+      </c>
+      <c r="C26" s="9">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>206</v>
+      </c>
+      <c r="E26" s="10">
+        <v>10247</v>
+      </c>
+      <c r="F26" s="10">
+        <v>73.5</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26" s="15">
+        <v>1733700</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="M26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 26, 26,206, 10247,73.5,'N/D','2001',1733700,'1GDJ7H1E12J505377',10500,'73.5'; </v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>27</v>
+      </c>
+      <c r="C27" s="9">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>301</v>
+      </c>
+      <c r="E27" s="10">
+        <v>67252</v>
+      </c>
+      <c r="F27" s="10">
+        <v>54.5</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="15">
+        <v>0</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="M27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 27, 27,301, 67252,54.5,'N/D','N/D',0,'N/D',6850,'54.5'; </v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>28</v>
+      </c>
+      <c r="C28" s="9">
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <v>302</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1500</v>
+      </c>
+      <c r="F28" s="10">
+        <v>90</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="M28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 28, 28,302, 1500,90,'N/D','N/D',0,'N/D',11315,'90'; </v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>29</v>
+      </c>
+      <c r="C29" s="9">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>303</v>
+      </c>
+      <c r="E29" s="10">
+        <v>4769680</v>
+      </c>
+      <c r="F29" s="10">
+        <v>62</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="15">
+        <v>0</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="M29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 29, 29,303, 4769680,62,'N/D','N/D',0,'N/D',16527,'62'; </v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <v>30</v>
+      </c>
+      <c r="C30" s="9">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>304</v>
+      </c>
+      <c r="E30" s="10">
+        <v>2640765</v>
+      </c>
+      <c r="F30" s="10">
+        <v>76.5</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="M30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 30, 30,304, 2640765,76.5,'N/D','2011',0,'1GDJ7H1E32J502051',10700,'76.5'; </v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>31</v>
+      </c>
+      <c r="C31" s="9">
+        <v>31</v>
+      </c>
+      <c r="D31">
+        <v>101</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="15">
+        <v>0</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="M31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 31, 31,101, 0,1,'N/D','N/D',0,'N/D',19500,'1'; </v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>32</v>
+      </c>
+      <c r="C32" s="9">
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <v>102</v>
+      </c>
+      <c r="E32" s="10">
+        <v>497576</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="M32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 32, 32,102, 497576,0,'N/D','N/D',0,'N/D',5000,'0'; </v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>33</v>
+      </c>
+      <c r="C33" s="9">
+        <v>33</v>
+      </c>
+      <c r="D33">
+        <v>103</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="M33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 33, 33,103, 0,0,'N/D','N/D',0,'N/D',6300,'0.00'; </v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>34</v>
+      </c>
+      <c r="C34" s="9">
+        <v>34</v>
+      </c>
+      <c r="D34">
+        <v>104</v>
+      </c>
+      <c r="E34" s="10">
+        <v>613949</v>
+      </c>
+      <c r="F34" s="10">
+        <v>9</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="M34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 34, 34,104, 613949,9,'N/D','N/D',0,'N/D',5000,'9'; </v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>35</v>
+      </c>
+      <c r="C35" s="9">
+        <v>35</v>
+      </c>
+      <c r="D35">
+        <v>201</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1818505</v>
+      </c>
+      <c r="F35" s="10">
+        <v>5</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="M35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 35, 35,201, 1818505,5,'N/D','N/D',0,'N/D',6300,'5'; </v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>36</v>
+      </c>
+      <c r="C36" s="9">
+        <v>36</v>
+      </c>
+      <c r="D36">
+        <v>202</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1869398</v>
+      </c>
+      <c r="F36" s="10">
+        <v>76</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="M36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 36, 36,202, 1869398,76,'N/D','1998',0,'1GDG6H1P9WJ518839',10000,'76'; </v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>37</v>
+      </c>
+      <c r="C37" s="9">
+        <v>37</v>
+      </c>
+      <c r="D37">
+        <v>203</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="M37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 37, 37,203, 0,0,'N/D','N/D',0,'N/D',0,'0.00'; </v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>38</v>
+      </c>
+      <c r="C38" s="9">
+        <v>38</v>
+      </c>
+      <c r="D38">
+        <v>204</v>
+      </c>
+      <c r="E38" s="10">
+        <v>1346738</v>
+      </c>
+      <c r="F38" s="10">
+        <v>69</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="M38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 38, 38,204, 1346738,69,'DW31616','2005',0,'3GBKC34GX5M101',5000,'69'; </v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>39</v>
+      </c>
+      <c r="C39" s="9">
+        <v>39</v>
+      </c>
+      <c r="D39">
+        <v>205</v>
+      </c>
+      <c r="E39" s="10">
+        <v>148707</v>
+      </c>
+      <c r="F39" s="10">
+        <v>50</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L39" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="K8" s="13">
-        <v>4300</v>
-      </c>
-      <c r="L8" s="13">
-        <v>74</v>
-      </c>
-      <c r="M8" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B8,", ",C8,", ",E8,",",F8,",'",G8,"','",#REF!,"','",H8,"',",I8,",'",J8,"',",K8,",'",L8,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P8" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>478009</v>
-      </c>
-      <c r="G9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="L9" s="12" t="s">
+      <c r="M39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 39, 39,205, 148707,50,'DV10363','2006',0,'3GBKC34GX5M118915',5000,'50'; </v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>40</v>
+      </c>
+      <c r="C40" s="9">
+        <v>40</v>
+      </c>
+      <c r="D40">
+        <v>206</v>
+      </c>
+      <c r="E40" s="10">
+        <v>68978</v>
+      </c>
+      <c r="F40" s="10">
+        <v>68</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="M40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 40, 40,206, 68978,68,'N/D','1996',0,'N/D',10000,'68'; </v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>41</v>
+      </c>
+      <c r="C41" s="9">
+        <v>41</v>
+      </c>
+      <c r="D41">
+        <v>301</v>
+      </c>
+      <c r="E41" s="10">
+        <v>900307</v>
+      </c>
+      <c r="F41" s="10">
+        <v>42</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="11">
+        <v>0</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="M41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 41, 41,301, 900307,42,'N/D','N/D',0,'1GDJ7HHB5XJ503294',9173,'42'; </v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <v>42</v>
+      </c>
+      <c r="C42" s="9">
+        <v>42</v>
+      </c>
+      <c r="D42">
+        <v>302</v>
+      </c>
+      <c r="E42" s="10">
+        <v>8837693</v>
+      </c>
+      <c r="F42" s="10">
+        <v>90</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="M42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 42, 42,302, 8837693,90,'N/D','N/D',0,'N/D',9931.66,'90'; </v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>43</v>
+      </c>
+      <c r="C43" s="9">
+        <v>43</v>
+      </c>
+      <c r="D43">
+        <v>303</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1578</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="M43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 43, 43,303, 1578,0,'SIN PLACAS','1998',0,'1GDJ7H1B6XJSO2123',9200,'0.00'; </v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <v>44</v>
+      </c>
+      <c r="C44" s="9">
+        <v>44</v>
+      </c>
+      <c r="D44">
+        <v>304</v>
+      </c>
+      <c r="E44" s="10">
+        <v>1498598</v>
+      </c>
+      <c r="F44" s="10">
+        <v>70</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="M44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 44, 44,304, 1498598,70,'N/D','1998',0,'1GDJ7H1B6XJSO2123',9072,'70'; </v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>45</v>
+      </c>
+      <c r="C45" s="9">
+        <v>45</v>
+      </c>
+      <c r="D45">
+        <v>101</v>
+      </c>
+      <c r="E45" s="10">
+        <v>403097</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I45" s="11">
+        <v>0</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L45" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="M45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 45, 45,101, 403097,0,'N/D','N/D',0,'N/D',5000,'0'; </v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>46</v>
+      </c>
+      <c r="C46" s="9">
+        <v>46</v>
+      </c>
+      <c r="D46">
+        <v>102</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
+      <c r="F46" s="10">
+        <v>0</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="M46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 46, 46,102, 0,0,'N/D','N/D',0,'N/D',100,'0.00'; </v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
+        <v>47</v>
+      </c>
+      <c r="C47" s="9">
+        <v>47</v>
+      </c>
+      <c r="D47">
+        <v>103</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
+      <c r="F47" s="10">
+        <v>1</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="M47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 47, 47,103, 0,1,'N/D','N/D',0,'N/D',5000,'1'; </v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="3">
+        <v>48</v>
+      </c>
+      <c r="C48" s="9">
+        <v>48</v>
+      </c>
+      <c r="D48">
+        <v>104</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1364143</v>
+      </c>
+      <c r="F48" s="10">
+        <v>31.5</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="M48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 48, 48,104, 1364143,31.5,'N/D','N/D',0,'N/D',10000,'31.5'; </v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
+        <v>49</v>
+      </c>
+      <c r="C49" s="9">
+        <v>49</v>
+      </c>
+      <c r="D49">
+        <v>201</v>
+      </c>
+      <c r="E49" s="10">
+        <v>313237.34000000003</v>
+      </c>
+      <c r="F49" s="10">
+        <v>0</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I49" s="11">
+        <v>0</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L49" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="M49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 49, 49,201, 313237.34,0,'N/D','N/D',0,'N/D',5000,'0'; </v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
+        <v>50</v>
+      </c>
+      <c r="C50" s="9">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <v>202</v>
+      </c>
+      <c r="E50" s="10">
+        <v>5714</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="M50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 50, 50,202, 5714,0,'DY2983','2005',0,'3GBJ6H1E45M105516',8250,'0.00'; </v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <v>51</v>
+      </c>
+      <c r="C51" s="9">
+        <v>51</v>
+      </c>
+      <c r="D51">
+        <v>203</v>
+      </c>
+      <c r="E51" s="10">
+        <v>1232703</v>
+      </c>
+      <c r="F51" s="10">
+        <v>91</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="M51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 51, 51,203, 1232703,91,'N/D','N/D',0,'N/D',3500,'91'; </v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="3">
+        <v>52</v>
+      </c>
+      <c r="C52" s="9">
+        <v>52</v>
+      </c>
+      <c r="D52">
+        <v>204</v>
+      </c>
+      <c r="E52" s="10">
+        <v>1712519</v>
+      </c>
+      <c r="F52" s="10">
+        <v>89</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I52" s="11">
+        <v>0</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="M52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 52, 52,204, 1712519,89,'N/D','2016',0,'IFDEF3GED43109',4110,'89'; </v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="3">
+        <v>53</v>
+      </c>
+      <c r="C53" s="9">
+        <v>53</v>
+      </c>
+      <c r="D53">
+        <v>205</v>
+      </c>
+      <c r="E53" s="10">
+        <v>1465835</v>
+      </c>
+      <c r="F53" s="10">
+        <v>90</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I53" s="11">
+        <v>0</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="M53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 53, 53,205, 1465835,90,'N/D','2017',0,'3GB3C9CGXHG271256',4500,'90'; </v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="3">
+        <v>54</v>
+      </c>
+      <c r="C54" s="9">
+        <v>54</v>
+      </c>
+      <c r="D54">
+        <v>206</v>
+      </c>
+      <c r="E54" s="10">
+        <v>1080889</v>
+      </c>
+      <c r="F54" s="10">
+        <v>91</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I54" s="15">
+        <v>0</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="M54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 54, 54,206, 1080889,91,'N/D','2017',0,'3GB3C9CG8HG267528',4500,'91'; </v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="3">
+        <v>55</v>
+      </c>
+      <c r="C55" s="9">
+        <v>55</v>
+      </c>
+      <c r="D55">
+        <v>301</v>
+      </c>
+      <c r="E55" s="10">
+        <v>1293386</v>
+      </c>
+      <c r="F55" s="10">
+        <v>91.5</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="L55" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="M9" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B9,", ",C9,", ",E9,",",F9,",'",G9,"','",#REF!,"','",H9,"',",I9,",'",J9,"',",K9,",'",L9,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P9" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1311155</v>
-      </c>
-      <c r="G10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="L10" s="12" t="s">
+      <c r="M55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 55, 55,301, 1293386,91.5,'N/D','2017',0,'3GB3C9CGOHG269760',4500,'91.5'; </v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="3">
+        <v>56</v>
+      </c>
+      <c r="C56" s="9">
+        <v>56</v>
+      </c>
+      <c r="D56">
+        <v>302</v>
+      </c>
+      <c r="E56" s="10">
+        <v>422960</v>
+      </c>
+      <c r="F56" s="10">
+        <v>90</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I56" s="15">
+        <v>0</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="M56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 56, 56,302, 422960,90,'N/D','2017',0,'3GB3C9CG2HG269761',4500,'90'; </v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="3">
+        <v>57</v>
+      </c>
+      <c r="C57" s="9">
+        <v>57</v>
+      </c>
+      <c r="D57">
+        <v>303</v>
+      </c>
+      <c r="E57" s="10">
+        <v>1263157</v>
+      </c>
+      <c r="F57" s="10">
+        <v>86</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I57" s="15">
+        <v>0</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="L57" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="M10" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B10,", ",C10,", ",E10,",",F10,",'",G10,"','",#REF!,"','",H10,"',",I10,",'",J10,"',",K10,",'",L10,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P10" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1914290</v>
-      </c>
-      <c r="G11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="L11" s="12" t="s">
+      <c r="M57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 57, 57,303, 1263157,86,'N/D','2017',0,'3GB3C9CG4HG273830',4500,'86'; </v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="3">
+        <v>58</v>
+      </c>
+      <c r="C58" s="9">
+        <v>58</v>
+      </c>
+      <c r="D58">
+        <v>304</v>
+      </c>
+      <c r="E58" s="10">
+        <v>876694</v>
+      </c>
+      <c r="F58" s="10">
+        <v>40</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I58" s="11">
+        <v>0</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="L58" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="M58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 58, 58,304, 876694,40,'N/D','1998',0,'N/D',9072,'40'; </v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="3">
+        <v>59</v>
+      </c>
+      <c r="C59" s="9">
+        <v>59</v>
+      </c>
+      <c r="D59">
+        <v>101</v>
+      </c>
+      <c r="E59" s="10">
+        <v>1456974</v>
+      </c>
+      <c r="F59" s="10">
+        <v>36</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I59" s="11">
+        <v>0</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="L59" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="M11" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B11,", ",C11,", ",E11,",",F11,",'",G11,"','",#REF!,"','",H11,"',",I11,",'",J11,"',",K11,",'",L11,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P11" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>955488</v>
-      </c>
-      <c r="G12" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="L12" s="12" t="s">
+      <c r="M59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 59, 59,101, 1456974,36,'N/D','N/D',0,'N/D',8000,'36'; </v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="3">
+        <v>60</v>
+      </c>
+      <c r="C60" s="9">
+        <v>60</v>
+      </c>
+      <c r="D60">
+        <v>102</v>
+      </c>
+      <c r="E60" s="10">
+        <v>756010</v>
+      </c>
+      <c r="F60" s="10">
+        <v>49</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I60" s="11">
+        <v>0</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="L60" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="M12" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B12,", ",C12,", ",E12,",",F12,",'",G12,"','",#REF!,"','",H12,"',",I12,",'",J12,"',",K12,",'",L12,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P12" s="8">
-        <v>3</v>
-      </c>
-      <c r="R12" s="14"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>252087</v>
-      </c>
-      <c r="G13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="L13" s="12" t="s">
+      <c r="M60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 60, 60,102, 756010,49,'N/D','N/D',0,'N/D',6300,'49'; </v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="3">
+        <v>61</v>
+      </c>
+      <c r="C61" s="9">
+        <v>61</v>
+      </c>
+      <c r="D61">
+        <v>103</v>
+      </c>
+      <c r="E61" s="10">
+        <v>424027</v>
+      </c>
+      <c r="F61" s="10">
+        <v>46</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I61" s="11">
+        <v>0</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 61, 61,103, 424027,46,'N/D','N/D',0,'N/D',5000,'46'; </v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="3">
+        <v>62</v>
+      </c>
+      <c r="C62" s="9">
+        <v>62</v>
+      </c>
+      <c r="D62">
+        <v>104</v>
+      </c>
+      <c r="E62" s="10">
+        <v>41365</v>
+      </c>
+      <c r="F62" s="10">
+        <v>54</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I62" s="15">
+        <v>170980</v>
+      </c>
+      <c r="J62" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="L62" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="M13" s="2" t="str">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, ",B13,", ",C13,",",D13,", ",E13,",",F13,",'",G13,"','",H13,"',",I13,",'",J13,"',",K13,",'",L13,"'; ")</f>
-        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 2, 11,2, 0,252087,'DX06774','N/D',0,'3GCM7HIMXVM501317',12500,'26'; </v>
-      </c>
-      <c r="P13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1901550</v>
-      </c>
-      <c r="G14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="L14" s="12" t="s">
+      <c r="M62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 62, 62,104, 41365,54,'N/D','N/D',170980,'1G1GDJ6H1BXXJ50',10000,'54'; </v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="3">
+        <v>63</v>
+      </c>
+      <c r="C63" s="9">
+        <v>63</v>
+      </c>
+      <c r="D63">
+        <v>201</v>
+      </c>
+      <c r="E63" s="10">
+        <v>1190158</v>
+      </c>
+      <c r="F63" s="10">
+        <v>41</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I63" s="11">
+        <v>0</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L63" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="M14" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B14,", ",C14,", ",E14,",",F14,",'",G14,"','",#REF!,"','",H14,"',",I14,",'",J14,"',",K14,",'",L14,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P14" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>2136581</v>
-      </c>
-      <c r="G15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="L15" s="12" t="s">
+      <c r="M63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 63, 63,201, 1190158,41,'N/D','N/D',0,'N/D',5000,'41'; </v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="3">
+        <v>64</v>
+      </c>
+      <c r="C64" s="9">
+        <v>64</v>
+      </c>
+      <c r="D64">
+        <v>202</v>
+      </c>
+      <c r="E64" s="10">
+        <v>2989326</v>
+      </c>
+      <c r="F64" s="10">
+        <v>5</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I64" s="11">
+        <v>0</v>
+      </c>
+      <c r="J64" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="M64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 64, 64,202, 2989326,5,'N/D','N/D',0,'N/D',7900,'5'; </v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="3">
+        <v>65</v>
+      </c>
+      <c r="C65" s="9">
+        <v>65</v>
+      </c>
+      <c r="D65">
+        <v>203</v>
+      </c>
+      <c r="E65" s="10">
+        <v>1678607</v>
+      </c>
+      <c r="F65" s="10">
+        <v>36.5</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I65" s="11">
+        <v>0</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="L65" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="M15" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B15,", ",C15,", ",E15,",",F15,",'",G15,"','",#REF!,"','",H15,"',",I15,",'",J15,"',",K15,",'",L15,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P15" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>5562873</v>
-      </c>
-      <c r="G16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="L16" s="12" t="s">
+      <c r="M65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 65, 65,203, 1678607,36.5,'N/D','N/D',0,'N/D',9462,'36.5'; </v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="3">
+        <v>66</v>
+      </c>
+      <c r="C66" s="9">
+        <v>66</v>
+      </c>
+      <c r="D66">
+        <v>204</v>
+      </c>
+      <c r="E66" s="10">
+        <v>388332</v>
+      </c>
+      <c r="F66" s="10">
+        <v>26</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I66" s="11">
+        <v>0</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="L66" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 66, 66,204, 388332,26,'N/D','N/D',0,'N/D',10500,'26'; </v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="3">
+        <v>67</v>
+      </c>
+      <c r="C67" s="9">
+        <v>67</v>
+      </c>
+      <c r="D67">
+        <v>205</v>
+      </c>
+      <c r="E67" s="10">
+        <v>1776580</v>
+      </c>
+      <c r="F67" s="10">
+        <v>36</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I67" s="11">
+        <v>0</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="M67" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 67, 67,205, 1776580,36,'N/D','N/D',0,'N/D',12250,'36'; </v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="3">
+        <v>68</v>
+      </c>
+      <c r="C68" s="9">
+        <v>68</v>
+      </c>
+      <c r="D68">
+        <v>206</v>
+      </c>
+      <c r="E68" s="10">
+        <v>1396571</v>
+      </c>
+      <c r="F68" s="10">
+        <v>65.5</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I68" s="11">
+        <v>0</v>
+      </c>
+      <c r="J68" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="L68" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="M16" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B16,", ",C16,", ",E16,",",F16,",'",G16,"','",#REF!,"','",H16,"',",I16,",'",J16,"',",K16,",'",L16,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P16" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>830297</v>
-      </c>
-      <c r="G17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="M17" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B17,", ",C17,", ",E17,",",F17,",'",G17,"','",#REF!,"','",H17,"',",I17,",'",J17,"',",K17,",'",L17,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P17" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1696797</v>
-      </c>
-      <c r="G18" t="s">
-        <v>129</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="M18" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B18,", ",C18,", ",E18,",",F18,",'",G18,"','",#REF!,"','",H18,"',",I18,",'",J18,"',",K18,",'",L18,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P18" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>17</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1419365</v>
-      </c>
-      <c r="G19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="M19" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B19,", ",C19,", ",E19,",",F19,",'",G19,"','",#REF!,"','",H19,"',",I19,",'",J19,"',",K19,",'",L19,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P19" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>3998929</v>
-      </c>
-      <c r="G20" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="M20" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B20,", ",C20,", ",E20,",",F20,",'",G20,"','",#REF!,"','",H20,"',",I20,",'",J20,"',",K20,",'",L20,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P20" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>19</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>2712677</v>
-      </c>
-      <c r="G21" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="M21" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B21,", ",C21,", ",E21,",",F21,",'",G21,"','",#REF!,"','",H21,"',",I21,",'",J21,"',",K21,",'",L21,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P21" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="3">
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1410981</v>
-      </c>
-      <c r="G22" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="M22" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B22,", ",C22,", ",E22,",",F22,",'",G22,"','",#REF!,"','",H22,"',",I22,",'",J22,"',",K22,",'",L22,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P22" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B23" s="3">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>21</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>28466678</v>
-      </c>
-      <c r="G23" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M23" s="2" t="str">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, ",B23,", ",C23,",",D23,", ",E23,",",F23,",'",G23,"','",H23,"',",I23,",'",J23,"',",K23,",'",L23,"'; ")</f>
-        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 3, 21,3, 0,28466678,'N/D','1997',1978555,'1GBL7H1PXRJ1078',12500,'0'; </v>
-      </c>
-      <c r="P23" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="3">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>3486404</v>
-      </c>
-      <c r="G24" t="s">
-        <v>131</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="M24" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B24,", ",C24,", ",E24,",",F24,",'",G24,"','",#REF!,"','",H24,"',",I24,",'",J24,"',",K24,",'",L24,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P24" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="3">
-        <v>23</v>
-      </c>
-      <c r="C25">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>136286</v>
-      </c>
-      <c r="G25" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="M25" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B25,", ",C25,", ",E25,",",F25,",'",G25,"','",#REF!,"','",H25,"',",I25,",'",J25,"',",K25,",'",L25,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P25" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="3">
-        <v>24</v>
-      </c>
-      <c r="C26">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>2083770</v>
-      </c>
-      <c r="G26" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="M26" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B26,", ",C26,", ",E26,",",F26,",'",G26,"','",#REF!,"','",H26,"',",I26,",'",J26,"',",K26,",'",L26,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P26" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="3">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <v>25</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>378890</v>
-      </c>
-      <c r="G27" t="s">
-        <v>123</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M27" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B27,", ",C27,", ",E27,",",F27,",'",G27,"','",#REF!,"','",H27,"',",I27,",'",J27,"',",K27,",'",L27,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P27" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="3">
-        <v>26</v>
-      </c>
-      <c r="C28">
-        <v>26</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1093487</v>
-      </c>
-      <c r="G28" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M28" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B28,", ",C28,", ",E28,",",F28,",'",G28,"','",#REF!,"','",H28,"',",I28,",'",J28,"',",K28,",'",L28,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P28" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="3">
-        <v>27</v>
-      </c>
-      <c r="C29">
-        <v>27</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>3332044</v>
-      </c>
-      <c r="G29" t="s">
-        <v>133</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M29" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B29,", ",C29,", ",E29,",",F29,",'",G29,"','",#REF!,"','",H29,"',",I29,",'",J29,"',",K29,",'",L29,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P29" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="3">
-        <v>28</v>
-      </c>
-      <c r="C30">
-        <v>28</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>468176</v>
-      </c>
-      <c r="G30" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M30" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B30,", ",C30,", ",E30,",",F30,",'",G30,"','",#REF!,"','",H30,"',",I30,",'",J30,"',",K30,",'",L30,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P30" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="3">
-        <v>29</v>
-      </c>
-      <c r="C31">
-        <v>29</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1553369</v>
-      </c>
-      <c r="G31" t="s">
-        <v>123</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M31" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B31,", ",C31,", ",E31,",",F31,",'",G31,"','",#REF!,"','",H31,"',",I31,",'",J31,"',",K31,",'",L31,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P31" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="3">
-        <v>30</v>
-      </c>
-      <c r="C32">
-        <v>30</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>4202089</v>
-      </c>
-      <c r="G32" t="s">
-        <v>123</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M32" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B32,", ",C32,", ",E32,",",F32,",'",G32,"','",#REF!,"','",H32,"',",I32,",'",J32,"',",K32,",'",L32,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P32" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B33" s="3">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <v>31</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1899661</v>
-      </c>
-      <c r="G33" t="s">
-        <v>123</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M33" s="2" t="str">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, ",B33,", ",C33,",",D33,", ",E33,",",F33,",'",G33,"','",H33,"',",I33,",'",J33,"',",K33,",'",L33,"'; ")</f>
-        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 4, 31,1, 0,1899661,'N/D','N/D',0,'N/D',0,'0'; </v>
-      </c>
-      <c r="P33" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="3">
-        <v>32</v>
-      </c>
-      <c r="C34">
-        <v>32</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>2756981</v>
-      </c>
-      <c r="G34" t="s">
-        <v>123</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M34" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B34,", ",C34,", ",E34,",",F34,",'",G34,"','",#REF!,"','",H34,"',",I34,",'",J34,"',",K34,",'",L34,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P34" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="3">
-        <v>33</v>
-      </c>
-      <c r="C35">
-        <v>33</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>2379843</v>
-      </c>
-      <c r="G35" t="s">
-        <v>134</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M35" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B35,", ",C35,", ",E35,",",F35,",'",G35,"','",#REF!,"','",H35,"',",I35,",'",J35,"',",K35,",'",L35,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P35" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="3">
-        <v>34</v>
-      </c>
-      <c r="C36">
-        <v>34</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>2640765</v>
-      </c>
-      <c r="G36" t="s">
-        <v>123</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M36" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B36,", ",C36,", ",E36,",",F36,",'",G36,"','",#REF!,"','",H36,"',",I36,",'",J36,"',",K36,",'",L36,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P36" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="3">
-        <v>35</v>
-      </c>
-      <c r="C37">
-        <v>35</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>613949</v>
-      </c>
-      <c r="G37" t="s">
-        <v>123</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M37" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B37,", ",C37,", ",E37,",",F37,",'",G37,"','",#REF!,"','",H37,"',",I37,",'",J37,"',",K37,",'",L37,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P37" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="3">
-        <v>36</v>
-      </c>
-      <c r="C38">
-        <v>36</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1818505</v>
-      </c>
-      <c r="G38" t="s">
-        <v>123</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M38" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B38,", ",C38,", ",E38,",",F38,",'",G38,"','",#REF!,"','",H38,"',",I38,",'",J38,"',",K38,",'",L38,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P38" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="3">
-        <v>37</v>
-      </c>
-      <c r="C39">
-        <v>37</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1346738</v>
-      </c>
-      <c r="G39" t="s">
-        <v>123</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M39" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B39,", ",C39,", ",E39,",",F39,",'",G39,"','",#REF!,"','",H39,"',",I39,",'",J39,"',",K39,",'",L39,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P39" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="3">
-        <v>38</v>
-      </c>
-      <c r="C40">
-        <v>38</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>148707</v>
-      </c>
-      <c r="G40" t="s">
-        <v>123</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M40" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B40,", ",C40,", ",E40,",",F40,",'",G40,"','",#REF!,"','",H40,"',",I40,",'",J40,"',",K40,",'",L40,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P40" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="3">
-        <v>39</v>
-      </c>
-      <c r="C41">
-        <v>39</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>68978</v>
-      </c>
-      <c r="G41" t="s">
-        <v>123</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M41" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B41,", ",C41,", ",E41,",",F41,",'",G41,"','",#REF!,"','",H41,"',",I41,",'",J41,"',",K41,",'",L41,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P41" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="3">
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <v>40</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1869398</v>
-      </c>
-      <c r="G42" t="s">
-        <v>134</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M42" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B42,", ",C42,", ",E42,",",F42,",'",G42,"','",#REF!,"','",H42,"',",I42,",'",J42,"',",K42,",'",L42,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P42" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B43" s="3">
-        <v>5</v>
-      </c>
-      <c r="C43">
-        <v>41</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>123</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M43" s="2" t="str">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, ",B43,", ",C43,",",D43,", ",E43,",",F43,",'",G43,"','",H43,"',",I43,",'",J43,"',",K43,",'",L43,"'; ")</f>
-        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 5, 41,2, 0,0,'N/D','2010',31741,'0144S02470505EAB',0,'0'; </v>
-      </c>
-      <c r="P43" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="3">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>42</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>4769680</v>
-      </c>
-      <c r="G44" t="s">
-        <v>135</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M44" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B44,", ",C44,", ",E44,",",F44,",'",G44,"','",#REF!,"','",H44,"',",I44,",'",J44,"',",K44,",'",L44,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P44" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="3">
-        <v>43</v>
-      </c>
-      <c r="C45">
-        <v>43</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>436731</v>
-      </c>
-      <c r="G45" t="s">
-        <v>123</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M45" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B45,", ",C45,", ",E45,",",F45,",'",G45,"','",#REF!,"','",H45,"',",I45,",'",J45,"',",K45,",'",L45,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P45" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="3">
-        <v>44</v>
-      </c>
-      <c r="C46">
-        <v>44</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>321083</v>
-      </c>
-      <c r="G46" t="s">
-        <v>123</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="M46" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B46,", ",C46,", ",E46,",",F46,",'",G46,"','",#REF!,"','",H46,"',",I46,",'",J46,"',",K46,",'",L46,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P46" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="3">
-        <v>45</v>
-      </c>
-      <c r="C47">
-        <v>45</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>800766</v>
-      </c>
-      <c r="G47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I47" s="11">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="M47" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B47,", ",C47,", ",E47,",",F47,",'",G47,"','",#REF!,"','",H47,"',",I47,",'",J47,"',",K47,",'",L47,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P47" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="3">
-        <v>46</v>
-      </c>
-      <c r="C48">
-        <v>46</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="s">
-        <v>123</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="M48" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B48,", ",C48,", ",E48,",",F48,",'",G48,"','",#REF!,"','",H48,"',",I48,",'",J48,"',",K48,",'",L48,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P48" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="3">
-        <v>47</v>
-      </c>
-      <c r="C49">
-        <v>47</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>662985</v>
-      </c>
-      <c r="G49" t="s">
-        <v>123</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="M49" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B49,", ",C49,", ",E49,",",F49,",'",G49,"','",#REF!,"','",H49,"',",I49,",'",J49,"',",K49,",'",L49,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P49" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="3">
-        <v>48</v>
-      </c>
-      <c r="C50">
-        <v>48</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>2042134</v>
-      </c>
-      <c r="G50" t="s">
-        <v>123</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="M50" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B50,", ",C50,", ",E50,",",F50,",'",G50,"','",#REF!,"','",H50,"',",I50,",'",J50,"',",K50,",'",L50,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P50" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="3">
-        <v>49</v>
-      </c>
-      <c r="C51">
-        <v>49</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>497576</v>
-      </c>
-      <c r="G51" t="s">
-        <v>123</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="M51" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B51,", ",C51,", ",E51,",",F51,",'",G51,"','",#REF!,"','",H51,"',",I51,",'",J51,"',",K51,",'",L51,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="3">
-        <v>50</v>
-      </c>
-      <c r="C52">
-        <v>50</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52" t="s">
-        <v>123</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="L52" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="M52" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B52,", ",C52,", ",E52,",",F52,",'",G52,"','",#REF!,"','",H52,"',",I52,",'",J52,"',",K52,",'",L52,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="K53" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="M53" s="2" t="e">
-        <f>CONCATENATE("EXECUTE [dbo].[PG_CI_DETALLE_PUNTO_VENTA] 0,0, ",B53,", ",C53,", ",E53,",",F53,",'",G53,"','",#REF!,"','",H53,"',",I53,",'",J53,"',",K53,",'",L53,"','",#REF!,"','",#REF!,"'; ")</f>
-        <v>#REF!</v>
+      <c r="M68" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXECUTE [dbo].[PG_CI_FICHA_AUTOTANQUE] 0,0, 68, 68,206, 1396571,65.5,'N/D','1996',0,'N/D',10000,'65.5'; </v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="P2:P53">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3162,9 +3817,9 @@
       <selection activeCell="I1" sqref="I1:I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3207,14 +3862,14 @@
       <c r="N1">
         <v>1</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3257,14 +3912,14 @@
       <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3307,14 +3962,14 @@
       <c r="N3">
         <v>1</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3357,14 +4012,14 @@
       <c r="N4">
         <v>1</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -3407,14 +4062,14 @@
       <c r="N5">
         <v>1</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -3457,14 +4112,14 @@
       <c r="N6">
         <v>1</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -3507,14 +4162,14 @@
       <c r="N7">
         <v>1</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -3557,14 +4212,14 @@
       <c r="N8">
         <v>1</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -3607,14 +4262,14 @@
       <c r="N9">
         <v>1</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -3657,14 +4312,14 @@
       <c r="N10">
         <v>1</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -3707,14 +4362,14 @@
       <c r="N11">
         <v>1</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3757,14 +4412,14 @@
       <c r="N12">
         <v>1</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -3807,14 +4462,14 @@
       <c r="N13">
         <v>1</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -3857,14 +4512,14 @@
       <c r="N14">
         <v>1</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -3907,14 +4562,14 @@
       <c r="N15">
         <v>1</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -3957,14 +4612,14 @@
       <c r="N16">
         <v>1</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -4007,14 +4662,14 @@
       <c r="N17">
         <v>1</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -4057,14 +4712,14 @@
       <c r="N18">
         <v>1</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -4107,14 +4762,14 @@
       <c r="N19">
         <v>1</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -4157,14 +4812,14 @@
       <c r="N20">
         <v>1</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -4207,14 +4862,14 @@
       <c r="N21">
         <v>1</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -4257,14 +4912,14 @@
       <c r="N22">
         <v>1</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -4307,14 +4962,14 @@
       <c r="N23">
         <v>1</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -4357,14 +5012,14 @@
       <c r="N24">
         <v>1</v>
       </c>
-      <c r="O24" s="9">
+      <c r="O24" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -4407,14 +5062,14 @@
       <c r="N25">
         <v>1</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -4457,14 +5112,14 @@
       <c r="N26">
         <v>1</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O26" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -4507,14 +5162,14 @@
       <c r="N27">
         <v>1</v>
       </c>
-      <c r="O27" s="9">
+      <c r="O27" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -4557,14 +5212,14 @@
       <c r="N28">
         <v>1</v>
       </c>
-      <c r="O28" s="9">
+      <c r="O28" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -4607,14 +5262,14 @@
       <c r="N29">
         <v>0</v>
       </c>
-      <c r="O29" s="9">
+      <c r="O29" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -4657,14 +5312,14 @@
       <c r="N30">
         <v>0</v>
       </c>
-      <c r="O30" s="9">
+      <c r="O30" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -4707,14 +5362,14 @@
       <c r="N31">
         <v>0</v>
       </c>
-      <c r="O31" s="9">
+      <c r="O31" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -4757,14 +5412,14 @@
       <c r="N32">
         <v>0</v>
       </c>
-      <c r="O32" s="9">
+      <c r="O32" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -4807,14 +5462,14 @@
       <c r="N33">
         <v>0</v>
       </c>
-      <c r="O33" s="9">
+      <c r="O33" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -4857,14 +5512,14 @@
       <c r="N34">
         <v>0</v>
       </c>
-      <c r="O34" s="9">
+      <c r="O34" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -4907,14 +5562,14 @@
       <c r="N35">
         <v>0</v>
       </c>
-      <c r="O35" s="9">
+      <c r="O35" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -4957,14 +5612,14 @@
       <c r="N36">
         <v>0</v>
       </c>
-      <c r="O36" s="9">
+      <c r="O36" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -5007,14 +5662,14 @@
       <c r="N37">
         <v>0</v>
       </c>
-      <c r="O37" s="9">
+      <c r="O37" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -5057,14 +5712,14 @@
       <c r="N38">
         <v>1</v>
       </c>
-      <c r="O38" s="9">
+      <c r="O38" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -5107,14 +5762,14 @@
       <c r="N39">
         <v>0</v>
       </c>
-      <c r="O39" s="9">
+      <c r="O39" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -5157,14 +5812,14 @@
       <c r="N40">
         <v>0</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O40" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -5207,14 +5862,14 @@
       <c r="N41">
         <v>0</v>
       </c>
-      <c r="O41" s="9">
+      <c r="O41" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -5257,14 +5912,14 @@
       <c r="N42">
         <v>0</v>
       </c>
-      <c r="O42" s="9">
+      <c r="O42" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -5307,14 +5962,14 @@
       <c r="N43">
         <v>0</v>
       </c>
-      <c r="O43" s="9">
+      <c r="O43" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P43" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -5357,14 +6012,14 @@
       <c r="N44">
         <v>0</v>
       </c>
-      <c r="O44" s="9">
+      <c r="O44" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -5407,14 +6062,14 @@
       <c r="N45">
         <v>0</v>
       </c>
-      <c r="O45" s="9">
+      <c r="O45" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -5457,14 +6112,14 @@
       <c r="N46">
         <v>0</v>
       </c>
-      <c r="O46" s="9">
+      <c r="O46" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -5507,14 +6162,14 @@
       <c r="N47">
         <v>1</v>
       </c>
-      <c r="O47" s="9">
+      <c r="O47" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P47" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -5557,14 +6212,14 @@
       <c r="N48">
         <v>0</v>
       </c>
-      <c r="O48" s="9">
+      <c r="O48" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P48" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -5607,14 +6262,14 @@
       <c r="N49">
         <v>0</v>
       </c>
-      <c r="O49" s="9">
+      <c r="O49" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -5657,7 +6312,7 @@
       <c r="N50">
         <v>1</v>
       </c>
-      <c r="O50" s="9">
+      <c r="O50" s="6">
         <v>41207.688564814816</v>
       </c>
       <c r="P50" t="s">
